--- a/medicine/Mort/Cimetière_du_Chesnay/Cimetière_du_Chesnay.xlsx
+++ b/medicine/Mort/Cimetière_du_Chesnay/Cimetière_du_Chesnay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Chesnay</t>
+          <t>Cimetière_du_Chesnay</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Chesnay-Rocquencourt est le cimetière de la commune du Chesnay-Rocquencourt, près de Paris dans le département des Yvelines. Il se trouve contre l'église Saint-Germain du Chesnay. Ville résidentielle proche de Versailles, Le Chesnay-Rocquencourt, née de la fusion des communes historiques  Le Chesnay et Rocquencourt, a attiré au XIXe siècle une population plutôt aisée, notamment sous le Second Empire et au début de la Troisième République, ce qui se reflète dans le style des sépultures dont certaines sont remarquables et encore préservées, surtout à côté de l'église.
 On remarque derrière l'église le mausolée imposant de deux familles alliées par mariage, les Ney d'Elchingen et celle des princes Murat. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Chesnay</t>
+          <t>Cimetière_du_Chesnay</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Famille Caruel de Saint-Martin, famille d'origine normande ayant fait fortune dans les tabacs. Quatre tombes dans un enclos abritent entre autres Jean-Baptiste (1757-1847), directeur de la manufacture de tabac et oncle de Géricault ; Paul (1809-1889), maire du Chesnay et député de Seine-et-Oise. Son épouse mourut dans l'incendie du Bazar de la Charité (1897).
 Pierre Clostermann (1921-2006), aviateur, compagnon de la Libération, ingénieur, député et écrivain, grand-croix de la Légion d'honneur.
